--- a/INTRODUCTION OF STATISTICS/ASSESMENT/INTRO OF STATASTICS.xlsx
+++ b/INTRODUCTION OF STATISTICS/ASSESMENT/INTRO OF STATASTICS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C503C-9CB6-4854-84D2-8467A67830F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F8E8A8-4A02-41E3-9E3D-814CB692A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3BD03941-735D-483B-8A60-75F38B234205}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>GIRLS</t>
   </si>
@@ -113,12 +113,39 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>SIGNIFICANCE LEVAI : 0.05</t>
+  </si>
+  <si>
+    <t>NULL HYPOTHESIS</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE HYPOTHESIS</t>
+  </si>
+  <si>
+    <t>H0 :There is no significant difference between boys and girls with respect to intelligence.</t>
+  </si>
+  <si>
+    <t>H1 : There is a significant difference between boys and girls with respect to intelligence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P VALUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN P VALUE IS &lt; 0.05 ,REJECT NULL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN P VALUE IS &gt; 0.05 ,ACCEPT NULL </t>
+  </si>
+  <si>
+    <t>ALPHA VALUE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,15 +173,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,8 +216,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +285,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,8 +313,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -437,26 +484,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,17 +502,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,51 +523,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,6 +605,8 @@
   <colors>
     <mruColors>
       <color rgb="FF660033"/>
+      <color rgb="FFCC3300"/>
+      <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
   <extLst>
@@ -860,942 +917,1006 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91269E2-CD1D-4AE2-8BC9-35C73630940F}">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>122</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>82</v>
       </c>
-      <c r="D2" s="10">
-        <f>_xlfn.VAR.P(A2:A51)</f>
-        <v>113.44</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="7">
+        <f>_xlfn.VAR.S(A2:A51)</f>
+        <v>115.75510204081633</v>
+      </c>
+      <c r="E2" s="8">
         <f>_xlfn.VAR.S(B2:B121)</f>
         <v>141.69747899159663</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>101</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>85</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>82</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>99</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>75</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="D5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="H5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="27">
         <v>89</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="27">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>82</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>88</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="38">
-        <v>113.44</v>
-      </c>
-      <c r="J6" s="38">
+      <c r="I6" s="27">
+        <v>115.7551</v>
+      </c>
+      <c r="J6" s="27">
         <v>141.69749999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>81</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>100</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="27">
         <v>50</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="27">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>80</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>83</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="D8" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="45">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="27">
         <v>0</v>
       </c>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>85</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>80</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="38">
-        <v>3.7688849787463443</v>
-      </c>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="I9" s="27">
+        <v>3.7438430920747807</v>
+      </c>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>96</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>42</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="38">
-        <v>8.1989212141531098E-5</v>
-      </c>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="I10" s="27">
+        <v>9.0613399999999995E-5</v>
+      </c>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>90</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>65</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="27">
         <v>1.6448536269514715</v>
       </c>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>94</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>88</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="D12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="38">
-        <v>1.639784242830622E-4</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="I12" s="27">
+        <v>1.8122685137900201E-4</v>
+      </c>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>82</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>35</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="D13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="28">
         <v>1.9599639845400536</v>
       </c>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>96</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>96</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>98</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="D16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="G16" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>82</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>98</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="D18" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="G18" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>136</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>98</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>99</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>83</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>81</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>82</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>84</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>84</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>82</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>80</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>81</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>81</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>84</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>80</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>85</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>84</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>84</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>81</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>85</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="9">
         <v>85</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="9">
         <v>82</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="9">
         <v>81</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="9">
         <v>91</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="9">
         <v>98</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="9">
         <v>83</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="9">
         <v>85</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="9">
         <v>81</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="9">
         <v>84</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="9">
         <v>84</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="9">
         <v>95</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="9">
         <v>99</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="9">
         <v>85</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
+      <c r="A51" s="11">
         <v>96</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="13">
+      <c r="B52" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="13">
+      <c r="B53" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="13">
+      <c r="B54" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="13">
+      <c r="B55" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="13">
+      <c r="B56" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="13">
+      <c r="B57" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="13">
+      <c r="B58" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="13">
+      <c r="B59" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="13">
+      <c r="B60" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="13">
+      <c r="B61" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="13">
+      <c r="B62" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="13">
+      <c r="B63" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="13">
+      <c r="B64" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="13">
+      <c r="B65" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="13">
+      <c r="B66" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="13">
+      <c r="B67" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="13">
+      <c r="B68" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="13">
+      <c r="B69" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="13">
+      <c r="B70" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="13">
+      <c r="B71" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="13">
+      <c r="B72" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="13">
+      <c r="B73" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="13">
+      <c r="B74" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="13">
+      <c r="B75" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="13">
+      <c r="B76" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="13">
+      <c r="B77" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="13">
+      <c r="B78" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="13">
+      <c r="B79" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="13">
+      <c r="B80" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="13">
+      <c r="B81" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="13">
+      <c r="B82" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="13">
+      <c r="B83" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="13">
+      <c r="B84" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="13">
+      <c r="B85" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="13">
+      <c r="B86" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="13">
+      <c r="B87" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="13">
+      <c r="B88" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="13">
+      <c r="B89" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="13">
+      <c r="B90" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="13">
+      <c r="B91" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="13">
+      <c r="B92" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="13">
+      <c r="B93" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="13">
+      <c r="B94" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="13">
+      <c r="B95" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="13">
+      <c r="B96" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="13">
+      <c r="B97" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="13">
+      <c r="B98" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="13">
+      <c r="B99" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="13">
+      <c r="B100" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="13">
+      <c r="B101" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="13">
+      <c r="B102" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="13">
+      <c r="B103" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="13">
+      <c r="B104" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="13">
+      <c r="B105" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="13">
+      <c r="B106" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="13">
+      <c r="B107" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="13">
+      <c r="B108" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="13">
+      <c r="B109" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="13">
+      <c r="B110" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="13">
+      <c r="B111" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="13">
+      <c r="B112" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="13">
+      <c r="B113" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="13">
+      <c r="B114" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="13">
+      <c r="B115" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="13">
+      <c r="B116" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="13">
+      <c r="B117" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="13">
+      <c r="B118" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="13">
+      <c r="B119" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="13">
+      <c r="B120" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="15">
+      <c r="B121" s="12">
         <v>83</v>
       </c>
     </row>
@@ -1808,8 +1929,15 @@
       <c r="B123" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1820,14 +1948,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -1835,183 +1963,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="F2" s="22" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="F2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="20">
         <v>220</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="20">
         <v>230</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="22">
         <v>550</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="20">
         <f>(D4*B6)/D6</f>
         <v>235.22012578616352</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="20">
         <f>D4*C6/D6</f>
         <v>314.77987421383648</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="20">
         <v>350</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="20">
         <v>640</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="22">
         <v>900</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="20">
         <f>D5*B6/D6</f>
         <v>384.90566037735852</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="20">
         <f>D5*C6/D6</f>
         <v>515.09433962264154</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="20">
         <v>680</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="20">
         <v>910</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="22">
         <v>1590</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="19">
         <f>SUM(G4:H5)</f>
         <v>1450</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="20">
         <f>(B4-G4)^2/G4</f>
         <v>0.98483166851646309</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="20">
         <f>(C4-H4)^2/H4</f>
         <v>22.833820267782531</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="20">
         <f>(B5-G5)^2/G5</f>
         <v>3.1654642989271222</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="20">
         <f>(C5-H5)^2/H5</f>
         <v>30.288478816780689</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="19">
         <f>_xlfn.CHISQ.DIST.RT(G11,G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19">
         <f>_xlfn.CHISQ.TEST(B4:C5,G4:H5)</f>
         <v>3.7940518826306575E-14</v>
       </c>

--- a/INTRODUCTION OF STATISTICS/ASSESMENT/INTRO OF STATASTICS.xlsx
+++ b/INTRODUCTION OF STATISTICS/ASSESMENT/INTRO OF STATASTICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\DA GITHUB\meethirpara9836\INTRODUCTION OF STATISTICS\ASSESMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F8E8A8-4A02-41E3-9E3D-814CB692A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059ABE9-CCB7-4EA6-B991-14D911267D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3BD03941-735D-483B-8A60-75F38B234205}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3BD03941-735D-483B-8A60-75F38B234205}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -488,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,7 +555,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,26 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,9 +925,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91269E2-CD1D-4AE2-8BC9-35C73630940F}">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +942,7 @@
     <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -948,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>122</v>
       </c>
@@ -963,13 +971,13 @@
         <f>_xlfn.VAR.S(B2:B121)</f>
         <v>141.69747899159663</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>101</v>
       </c>
@@ -977,7 +985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>85</v>
       </c>
@@ -995,18 +1003,18 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>99</v>
       </c>
       <c r="B5" s="10">
         <v>75</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
       <c r="H5" s="25" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>82</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>141.69749999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>81</v>
       </c>
@@ -1054,17 +1062,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>80</v>
       </c>
       <c r="B8" s="10">
         <v>83</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="31">
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H8" s="25" t="s">
@@ -1075,7 +1083,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>85</v>
       </c>
@@ -1090,7 +1098,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>96</v>
       </c>
@@ -1111,7 +1119,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>90</v>
       </c>
@@ -1126,19 +1134,19 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>94</v>
       </c>
       <c r="B12" s="10">
         <v>88</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="25" t="s">
         <v>10</v>
       </c>
@@ -1147,19 +1155,19 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>82</v>
       </c>
       <c r="B13" s="10">
         <v>35</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="26" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1176,7 @@
       </c>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>96</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>96</v>
       </c>
@@ -1184,29 +1192,25 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>98</v>
       </c>
       <c r="B16" s="10">
         <v>89</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="G16" s="47" t="s">
+      <c r="E16" s="35"/>
+      <c r="G16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -1223,18 +1227,18 @@
       <c r="B18" s="10">
         <v>85</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="G18" s="41" t="s">
+      <c r="E18" s="36"/>
+      <c r="G18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -1947,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF74ACC-55BC-4DC6-BFE3-80F3E77E60E3}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,30 +1967,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="F2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
